--- a/config/xlsx/appearance/avatar.xlsx
+++ b/config/xlsx/appearance/avatar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\xlsx2csv\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\ClockTower\config\xlsx\appearance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF66AFC-945D-4EAB-B6A9-3ACD890F22F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E920D7-09A6-413D-8EE1-1CAC902D8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>恶魔之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,12 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +235,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,55 +523,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
